--- a/biology/Médecine/Pierre_Bernard_(homme_politique,_1934,_Tarn)/Pierre_Bernard_(homme_politique,_1934,_Tarn).xlsx
+++ b/biology/Médecine/Pierre_Bernard_(homme_politique,_1934,_Tarn)/Pierre_Bernard_(homme_politique,_1934,_Tarn).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pierre Bernard, né le 6 mai 1934[1] à Alban et mort le 5 décembre 2020 à Trébas[2], est un homme politique français, membre du PS puis indépendant.
+Pierre Bernard, né le 6 mai 1934 à Alban et mort le 5 décembre 2020 à Trébas, est un homme politique français, membre du PS puis indépendant.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maire de Trébas de 1970 à 2001, Pierre Bernard est conseiller général du canton de Valence-d'Albigeois de 1982 à 2001.
 Il succède à André Billoux à l'Assemblée nationale après le décès de ce dernier — dont il était le suppléant — en octobre 1980. Réélu député en 1981, il siège jusqu'en 1993 : n'étant pas candidat lors du scrutin de mars 1993, il permet par son retrait l'élection de Paul Quilès comme député de la 1re circonscription du Tarn.
-Il préside le Syndicat départemental d'énergies du Tarn (SDET)[3] jusqu'en 2014.
-Il fait paraître en 2015 un ouvrage relatant son activité professionnelle et politique, intitulé Trébas, en cinquante ans de ma vie[4].
-En 2018 un ouvrage publié en juin, intitulé Ma jeunesse.[1]
-En 2019 un dernier ouvrage publié en décembre, intitulé Le hasard et les circonstances. Disponible au Logis Hostellerie les Lauriers à Villeneuve sur Tarn, Téléphone : 05.63.55.84.23 [2]
+Il préside le Syndicat départemental d'énergies du Tarn (SDET) jusqu'en 2014.
+Il fait paraître en 2015 un ouvrage relatant son activité professionnelle et politique, intitulé Trébas, en cinquante ans de ma vie.
+En 2018 un ouvrage publié en juin, intitulé Ma jeunesse.
+En 2019 un dernier ouvrage publié en décembre, intitulé Le hasard et les circonstances. Disponible au Logis Hostellerie les Lauriers à Villeneuve sur Tarn, Téléphone : 05.63.55.84.23 
 </t>
         </is>
       </c>
